--- a/historical/PAYTM.xlsx
+++ b/historical/PAYTM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O209"/>
+  <dimension ref="A1:O210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10255,6 +10255,53 @@
         <v>0.3093</v>
       </c>
     </row>
+    <row r="210" spans="1:15">
+      <c r="A210" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B210" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210">
+        <v>706.95</v>
+      </c>
+      <c r="E210">
+        <v>710.1</v>
+      </c>
+      <c r="F210">
+        <v>714.8</v>
+      </c>
+      <c r="G210">
+        <v>690.55</v>
+      </c>
+      <c r="H210">
+        <v>696.5</v>
+      </c>
+      <c r="I210">
+        <v>697.45</v>
+      </c>
+      <c r="J210">
+        <v>704.4400000000001</v>
+      </c>
+      <c r="K210">
+        <v>892041</v>
+      </c>
+      <c r="L210">
+        <v>62839375985000</v>
+      </c>
+      <c r="M210">
+        <v>28167</v>
+      </c>
+      <c r="N210">
+        <v>325978</v>
+      </c>
+      <c r="O210">
+        <v>0.3654</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
